--- a/Excel Data/CDRCollectBulk.xlsx
+++ b/Excel Data/CDRCollectBulk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\QATeam\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,10 +41,10 @@
     <t>COMMISSION.AMT:1</t>
   </si>
   <si>
-    <t>POCOMM</t>
-  </si>
-  <si>
     <t>PKR 0.00</t>
+  </si>
+  <si>
+    <t>POCOMMS</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/CDRCollectBulk.xlsx
+++ b/Excel Data/CDRCollectBulk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CREDIT.AMOUNT</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>POCOMMS</t>
+  </si>
+  <si>
+    <t>CHEQUE.NUMBER</t>
+  </si>
+  <si>
+    <t>ORDERING.BANK:1</t>
   </si>
 </sst>
 </file>
@@ -362,22 +368,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,29 +392,35 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
       <c r="B2">
         <v>1007737725</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
